--- a/MainTop/08.08.2024/печать_бирки_60cm_150pcs.xlsx
+++ b/MainTop/08.08.2024/печать_бирки_60cm_150pcs.xlsx
@@ -203,7 +203,7 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/MainTop/08.08.2024/печать_бирки_60cm_150pcs.xlsx
+++ b/MainTop/08.08.2024/печать_бирки_60cm_150pcs.xlsx
@@ -200,10 +200,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L14" activeCellId="0" sqref="L14"/>
+      <selection pane="topLeft" activeCell="K8" activeCellId="0" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -706,6 +706,12 @@
         <v>30</v>
       </c>
     </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J16" s="0" t="n">
+        <f aca="false">SUM(J2:J15)</f>
+        <v>152</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
